--- a/Lab2/Lab2_w68468.xlsx
+++ b/Lab2/Lab2_w68468.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20395"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w68468\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71A7D0C4-D5E9-44B7-B37A-F54D1409E36E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="zadanie_1" sheetId="5" r:id="rId1"/>
@@ -21,8 +15,8 @@
     <sheet name="złożoność" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -214,7 +208,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="21">
     <font>
       <sz val="11"/>
@@ -630,15 +624,6 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -650,11 +635,20 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Dobry" xfId="1" builtinId="26"/>
+    <cellStyle name="Dobre" xfId="1" builtinId="26"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
-    <cellStyle name="Normalny 2" xfId="2" xr:uid="{70BBDDAF-E609-4A80-B790-8C46F17D0EA6}"/>
+    <cellStyle name="Normalny 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -670,25 +664,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="pl-PL"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1026,7 +1008,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-796A-423C-AE64-ED0A0961BE74}"/>
             </c:ext>
@@ -1034,7 +1016,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:v>bn</c:v>
           </c:tx>
@@ -1210,7 +1192,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-796A-423C-AE64-ED0A0961BE74}"/>
             </c:ext>
@@ -1218,7 +1200,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="2"/>
           <c:tx>
             <c:v>g(n)=d*n^2</c:v>
           </c:tx>
@@ -1394,23 +1376,16 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-796A-423C-AE64-ED0A0961BE74}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="600098656"/>
-        <c:axId val="600100296"/>
-        <c:extLst>
+        <c:dLbls/>
+        <c:axId val="94757632"/>
+        <c:axId val="94759168"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
               <c15:ser>
@@ -1533,12 +1508,11 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="600098656"/>
+        <c:axId val="94757632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1556,7 +1530,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1591,16 +1564,15 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="600100296"/>
+        <c:crossAx val="94759168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="600100296"/>
+        <c:axId val="94759168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1618,7 +1590,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1653,7 +1624,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="600098656"/>
+        <c:crossAx val="94757632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1667,7 +1638,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1698,14 +1668,13 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1734,7 +1703,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2316,7 +2285,7 @@
         <xdr:cNvPr id="2" name="pole tekstowe 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FA1FF16-77B4-4E43-84FA-881E3AE79865}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7FA1FF16-77B4-4E43-84FA-881E3AE79865}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2505,7 +2474,7 @@
         <xdr:cNvPr id="2" name="Obraz 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48A55BB4-DEEF-45FC-9523-88F4E2E4AFFA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{48A55BB4-DEEF-45FC-9523-88F4E2E4AFFA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2549,56 +2518,33 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>111810</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:aink="http://schemas.microsoft.com/office/drawing/2016/ink" Requires="xdr14 aink">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="9" name="Pismo odręczne 8">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BC182EB-8FDC-4247-8887-17260EE4EF3C}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="8553240" y="1085715"/>
-            <a:ext cx="2358000" cy="1131120"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="9" name="Pismo odręczne 8">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BC182EB-8FDC-4247-8887-17260EE4EF3C}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8535597" y="1067721"/>
-              <a:ext cx="2393645" cy="1166749"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Pismo odręczne 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="" id="{4BC182EB-8FDC-4247-8887-17260EE4EF3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8535597" y="1067721"/>
+          <a:ext cx="2393645" cy="1166749"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -2614,56 +2560,33 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>219030</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="10" name="Pismo odręczne 9">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{662A932C-D4F1-4194-B453-0A931052FC23}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="11134440" y="3514320"/>
-            <a:ext cx="360" cy="360"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="10" name="Pismo odręczne 9">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{662A932C-D4F1-4194-B453-0A931052FC23}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="11125800" y="3505320"/>
-              <a:ext cx="18000" cy="18000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Pismo odręczne 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="" id="{662A932C-D4F1-4194-B453-0A931052FC23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11125800" y="3505320"/>
+          <a:ext cx="18000" cy="18000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -2679,56 +2602,33 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>171615</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="13" name="Pismo odręczne 12">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3863EDF-D0CB-4E47-AB96-73B7D7231743}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="9105480" y="2276280"/>
-            <a:ext cx="360" cy="360"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="13" name="Pismo odręczne 12">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3863EDF-D0CB-4E47-AB96-73B7D7231743}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="9096840" y="2267280"/>
-              <a:ext cx="18000" cy="18000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Pismo odręczne 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="" id="{B3863EDF-D0CB-4E47-AB96-73B7D7231743}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9096840" y="2267280"/>
+          <a:ext cx="18000" cy="18000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -2744,56 +2644,33 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>152535</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="14" name="Pismo odręczne 13">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0720960E-81F2-432D-A1D3-6965A2287830}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="9105480" y="2257200"/>
-            <a:ext cx="360" cy="360"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="14" name="Pismo odręczne 13">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0720960E-81F2-432D-A1D3-6965A2287830}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="9096840" y="2248200"/>
-              <a:ext cx="18000" cy="18000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Pismo odręczne 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="" id="{0720960E-81F2-432D-A1D3-6965A2287830}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9096840" y="2248200"/>
+          <a:ext cx="18000" cy="18000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -2809,56 +2686,33 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>171615</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="15" name="Pismo odręczne 14">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8924B75F-DC82-4DCF-A6A8-0480B21FAA38}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="9057960" y="2276280"/>
-            <a:ext cx="360" cy="360"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="15" name="Pismo odręczne 14">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8924B75F-DC82-4DCF-A6A8-0480B21FAA38}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="9049320" y="2267280"/>
-              <a:ext cx="18000" cy="18000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Pismo odręczne 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="" id="{8924B75F-DC82-4DCF-A6A8-0480B21FAA38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9049320" y="2267280"/>
+          <a:ext cx="18000" cy="18000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -2874,56 +2728,33 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>161895</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="16" name="Pismo odręczne 15">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5502BE6F-B842-4B1F-9AF0-5056B4A21F7A}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="8981640" y="2266560"/>
-            <a:ext cx="360" cy="360"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="16" name="Pismo odręczne 15">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5502BE6F-B842-4B1F-9AF0-5056B4A21F7A}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8973000" y="2257560"/>
-              <a:ext cx="18000" cy="18000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Pismo odręczne 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="" id="{5502BE6F-B842-4B1F-9AF0-5056B4A21F7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8973000" y="2257560"/>
+          <a:ext cx="18000" cy="18000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -2939,56 +2770,33 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>152535</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="17" name="Pismo odręczne 16">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB13A6B1-75A1-4793-A43A-62EE85DF99AA}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="8981640" y="2257200"/>
-            <a:ext cx="360" cy="360"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="17" name="Pismo odręczne 16">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB13A6B1-75A1-4793-A43A-62EE85DF99AA}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8973000" y="2248200"/>
-              <a:ext cx="18000" cy="18000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Pismo odręczne 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="" id="{DB13A6B1-75A1-4793-A43A-62EE85DF99AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8973000" y="2248200"/>
+          <a:ext cx="18000" cy="18000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -3004,56 +2812,33 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>38445</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="18" name="Pismo odręczne 17">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7E663A0-335D-4DAB-B125-8211E90886E4}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="9553320" y="2609640"/>
-            <a:ext cx="7920" cy="10080"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="18" name="Pismo odręczne 17">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7E663A0-335D-4DAB-B125-8211E90886E4}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="9544680" y="2600640"/>
-              <a:ext cx="25560" cy="27720"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Pismo odręczne 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="" id="{E7E663A0-335D-4DAB-B125-8211E90886E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9544680" y="2600640"/>
+          <a:ext cx="25560" cy="27720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -3069,56 +2854,33 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>142815</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="19" name="Pismo odręczne 18">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C449A8CD-23E9-438F-835B-29AAE4DCA0BB}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="9162720" y="2247480"/>
-            <a:ext cx="360" cy="360"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="19" name="Pismo odręczne 18">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C449A8CD-23E9-438F-835B-29AAE4DCA0BB}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="9154080" y="2238480"/>
-              <a:ext cx="18000" cy="18000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Pismo odręczne 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="" id="{C449A8CD-23E9-438F-835B-29AAE4DCA0BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9154080" y="2238480"/>
+          <a:ext cx="18000" cy="18000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3144,7 +2906,7 @@
         <xdr:cNvPr id="3" name="pole tekstowe 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86F6F8FA-C8CC-46FD-8FAD-AF208822B075}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{86F6F8FA-C8CC-46FD-8FAD-AF208822B075}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3363,7 +3125,7 @@
         <xdr:cNvPr id="2" name="Wykres 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A64B07A9-624C-4250-A120-5C7BA952209C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A64B07A9-624C-4250-A120-5C7BA952209C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3384,287 +3146,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-03-14T13:33:49.384"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.1" units="cm"/>
-      <inkml:brushProperty name="height" value="0.1" units="cm"/>
-      <inkml:brushProperty name="color" value="#AE198D"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-      <inkml:brushProperty name="inkEffects" value="galaxy"/>
-      <inkml:brushProperty name="anchorX" value="0"/>
-      <inkml:brushProperty name="anchorY" value="0"/>
-      <inkml:brushProperty name="scaleFactor" value="0.5"/>
-    </inkml:brush>
-    <inkml:brush xml:id="br1">
-      <inkml:brushProperty name="width" value="0.1" units="cm"/>
-      <inkml:brushProperty name="height" value="0.1" units="cm"/>
-      <inkml:brushProperty name="color" value="#AE198D"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-      <inkml:brushProperty name="inkEffects" value="galaxy"/>
-      <inkml:brushProperty name="anchorX" value="-5663.7793"/>
-      <inkml:brushProperty name="anchorY" value="-4119.37939"/>
-      <inkml:brushProperty name="scaleFactor" value="0.5"/>
-    </inkml:brush>
-    <inkml:brush xml:id="br2">
-      <inkml:brushProperty name="width" value="0.1" units="cm"/>
-      <inkml:brushProperty name="height" value="0.1" units="cm"/>
-      <inkml:brushProperty name="color" value="#AE198D"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-      <inkml:brushProperty name="inkEffects" value="galaxy"/>
-      <inkml:brushProperty name="anchorX" value="-3952.28784"/>
-      <inkml:brushProperty name="anchorY" value="-3245.76685"/>
-      <inkml:brushProperty name="scaleFactor" value="0.5"/>
-    </inkml:brush>
-    <inkml:brush xml:id="br3">
-      <inkml:brushProperty name="width" value="0.1" units="cm"/>
-      <inkml:brushProperty name="height" value="0.1" units="cm"/>
-      <inkml:brushProperty name="color" value="#AE198D"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-      <inkml:brushProperty name="inkEffects" value="galaxy"/>
-      <inkml:brushProperty name="anchorX" value="-6998.07275"/>
-      <inkml:brushProperty name="anchorY" value="-4617.43604"/>
-      <inkml:brushProperty name="scaleFactor" value="0.5"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">2011 0,'0'0,"4"0,8 0,4 0,5 5,2 6,3 5,7 10,0-2,5 7,4 1,0-1,-4 0,3-7,-8 0,-4-2,-2-5,-6 1,-2 1,1 2,0 1,3 2,6 2,1 0,1-5,0 0,-6 1,-2-5,0 1,-1-4,7 1,1 3,-5 2,5 2,-5 2,-1-4,-1 6,6 1,-4 1,10-5,1 5,5-1,3 2,-6-1,-4 0,-3-6,-3 0,-1-1,-1 1,4-4,7 1,4 1,1-4,2 7,-2 1,-10 3,3 0,1 1,0 0,-2-6,-7 0,-8-1,4 7,0-5,1 7,1 5,7-5,10 5,1-1,5 3,-4-6,2-2,-4-7,-10 4,-3-6,-4-5,-1-4,0 0,0-2,6 8,1 3,0 4,-1 2,5 7,-1-5,-1-6,-1-6,-8-1,-1 1,-1-3,-4 2,-1-3,-3 3,1 2,12 8,4 8,2-3,0-5,4-7,4-1,-1 0,3-3,-3 7,-8 2,-4-3,-2-3,-7 5,-5 1,-6 2,-4 7,3-5,3 0,6-6,-2-1,8-5,3-4,3-4,5-4,1-2,5-1,-1 0,3-1,4-5,-3 0,-3 0,1 1,-3 2,4-5,-4 2,-2 0,-2 1,-3 2,-2 1,-1 1,-6 6,0 1,5 5,1 5,1 3,0-1,1 2,4-5,-5 3,-1 0,-7 3,0-4,0 2,1 1,-4 2,-3 2,0 6,-3 1,2-4,3-7,-3-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="1712.575">6377 2513,'0'0,"0"9,10 14,6 10,0 8,-1 1,1 10,7-3,-2-4,7 1,-10-11,-9-9,-22-9,-10-7,-8-6,-2-3,0-2,-10-1,-9 0,1 1,3-1,5 2,6-1,4-4,4-1,2 1,-4 0,0 2,0 1,6 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br2" timeOffset="3312.305">1 2857,'0'0,"0"-4,0-8,5 2,5 0,6-9,5-2,3-4,-4-1,2-2,-6 0,2-5,1-5,2 0,1 1,2 3,2 2,5 2,1 2,0 6,10-3,4 4,15-1,-2 6,-5 4,-7 4,-6 4,-7 2,-4 1,-2 2,8 5,0 6,11 5,3 9,3-2,8 2,-6 0,-5 1,-1-1,-7 6,0-6,2 1,2-2,7 1,-2-1,-5 0,-5 1,-6-5,-3 0,-9 10,4 8,-7 0,-4 0,-6-3,-4-2,-3-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br3" timeOffset="5024.209">1482 2831,'0'0,"9"5,14 11,9 11,9 5,7 1,9 6,-3-1,1-2,-6-8,-6-7,-1-3,-10 0,-3-20,-8-15,-7-9,-1-10,-4-8,-2 0,-4-8,5 3,8-1,1 5,-2 4,-3 6,1 8,-3 4,-2 7</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-03-14T13:34:04.567"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#33CCFF"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'0'0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink3.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-03-14T13:34:24.887"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#33CCFF"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'0'0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink4.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-03-14T13:34:24.093"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#33CCFF"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="425.749">1 0,'0'0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink5.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-03-14T13:34:29.998"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#33CCFF"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'0'0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink6.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-03-14T13:34:30.531"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#33CCFF"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink7.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-03-14T13:34:30.710"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#33CCFF"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'0'0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink8.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-03-14T13:34:31.150"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#33CCFF"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'0'5,"9"5,3 2</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink9.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-03-14T13:34:35.380"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#33CCFF"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0</inkml:trace>
-</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3710,7 +3191,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -3745,7 +3226,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -3922,14 +3403,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0977BFF0-4DB1-43CF-A2E9-10A080A804CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:G5"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -3995,7 +3476,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5C99111-06F8-46EF-9627-0695D405BCF4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -4136,7 +3617,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A4:U43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4290,28 +3771,28 @@
       <c r="M13" s="29"/>
     </row>
     <row r="14" spans="1:21">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="45">
+      <c r="B14" s="50">
         <v>-2</v>
       </c>
-      <c r="C14" s="45">
+      <c r="C14" s="50">
         <v>0</v>
       </c>
-      <c r="D14" s="45">
+      <c r="D14" s="50">
         <v>4</v>
       </c>
-      <c r="E14" s="45">
+      <c r="E14" s="50">
         <v>-3</v>
       </c>
-      <c r="F14" s="45">
+      <c r="F14" s="50">
         <v>2</v>
       </c>
-      <c r="G14" s="45">
+      <c r="G14" s="50">
         <v>7</v>
       </c>
-      <c r="H14" s="45">
+      <c r="H14" s="50">
         <v>1</v>
       </c>
       <c r="J14" s="27"/>
@@ -4320,14 +3801,14 @@
       <c r="M14" s="29"/>
     </row>
     <row r="15" spans="1:21">
-      <c r="A15" s="46"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
       <c r="J15" s="27"/>
       <c r="K15" s="27"/>
       <c r="L15" s="28"/>
@@ -4441,10 +3922,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF7254A4-F0B1-4477-ABC3-63ECC04A7A85}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
@@ -4454,13 +3935,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
       <c r="J1" t="s">
         <v>25</v>
       </c>
@@ -4606,22 +4087,22 @@
       <c r="N10" t="s">
         <v>31</v>
       </c>
-      <c r="O10" s="48">
+      <c r="O10" s="45">
         <v>-3</v>
       </c>
-      <c r="P10" s="49">
+      <c r="P10" s="46">
         <v>0</v>
       </c>
-      <c r="Q10" s="49">
+      <c r="Q10" s="46">
         <v>4</v>
       </c>
-      <c r="R10" s="48">
+      <c r="R10" s="45">
         <v>-2</v>
       </c>
-      <c r="S10" s="49">
+      <c r="S10" s="46">
         <v>2</v>
       </c>
-      <c r="T10" s="49">
+      <c r="T10" s="46">
         <v>7</v>
       </c>
     </row>
@@ -4681,22 +4162,22 @@
       <c r="N15" t="s">
         <v>36</v>
       </c>
-      <c r="O15" s="49">
+      <c r="O15" s="46">
         <v>-2</v>
       </c>
-      <c r="P15" s="48">
+      <c r="P15" s="45">
         <v>-2</v>
       </c>
-      <c r="Q15" s="49">
+      <c r="Q15" s="46">
         <v>4</v>
       </c>
-      <c r="R15" s="48">
+      <c r="R15" s="45">
         <v>0</v>
       </c>
-      <c r="S15" s="49">
+      <c r="S15" s="46">
         <v>2</v>
       </c>
-      <c r="T15" s="49">
+      <c r="T15" s="46">
         <v>7</v>
       </c>
     </row>
@@ -4726,25 +4207,25 @@
       <c r="M16" s="5"/>
     </row>
     <row r="17" spans="1:13" ht="18.75">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="45">
+      <c r="B17" s="50">
         <v>-2</v>
       </c>
-      <c r="C17" s="45">
+      <c r="C17" s="50">
         <v>0</v>
       </c>
-      <c r="D17" s="45">
+      <c r="D17" s="50">
         <v>4</v>
       </c>
-      <c r="E17" s="45">
+      <c r="E17" s="50">
         <v>-3</v>
       </c>
-      <c r="F17" s="45">
+      <c r="F17" s="50">
         <v>2</v>
       </c>
-      <c r="G17" s="45">
+      <c r="G17" s="50">
         <v>7</v>
       </c>
       <c r="J17" s="6"/>
@@ -4753,13 +4234,13 @@
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="1:13" ht="18.75">
-      <c r="A18" s="46"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
+      <c r="A18" s="51"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
@@ -4782,14 +4263,14 @@
       <c r="M20" s="5"/>
     </row>
     <row r="21" spans="1:13" ht="18.75">
-      <c r="H21" s="46"/>
+      <c r="H21" s="51"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
       <c r="M21" s="5"/>
     </row>
     <row r="22" spans="1:13" ht="18.75">
-      <c r="H22" s="46"/>
+      <c r="H22" s="51"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
@@ -4963,10 +4444,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE823B78-3403-4A61-BB3A-CB6C8D821C83}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A4:U42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -5076,10 +4557,10 @@
       </c>
       <c r="O7" s="21"/>
       <c r="P7" s="23"/>
-      <c r="Q7" s="52">
+      <c r="Q7" s="49">
         <v>-3</v>
       </c>
-      <c r="R7" s="51">
+      <c r="R7" s="48">
         <v>4</v>
       </c>
       <c r="S7" s="21"/>
@@ -5097,10 +4578,10 @@
       <c r="O8" s="21">
         <v>-2</v>
       </c>
-      <c r="P8" s="52">
+      <c r="P8" s="49">
         <v>-3</v>
       </c>
-      <c r="Q8" s="51">
+      <c r="Q8" s="48">
         <v>0</v>
       </c>
       <c r="R8" s="23">
@@ -5122,10 +4603,10 @@
       <c r="M9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="O9" s="50">
+      <c r="O9" s="47">
         <v>-3</v>
       </c>
-      <c r="P9" s="51">
+      <c r="P9" s="48">
         <v>-2</v>
       </c>
       <c r="Q9" s="23">
@@ -5201,25 +4682,25 @@
       <c r="T12" s="21"/>
     </row>
     <row r="13" spans="1:21" ht="18.75">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="45">
+      <c r="B13" s="50">
         <v>-2</v>
       </c>
-      <c r="C13" s="45">
+      <c r="C13" s="50">
         <v>0</v>
       </c>
-      <c r="D13" s="45">
+      <c r="D13" s="50">
         <v>4</v>
       </c>
-      <c r="E13" s="45">
+      <c r="E13" s="50">
         <v>-3</v>
       </c>
-      <c r="F13" s="45">
+      <c r="F13" s="50">
         <v>2</v>
       </c>
-      <c r="G13" s="45">
+      <c r="G13" s="50">
         <v>7</v>
       </c>
       <c r="J13" s="6"/>
@@ -5234,13 +4715,13 @@
       <c r="T13" s="22"/>
     </row>
     <row r="14" spans="1:21" ht="18.75">
-      <c r="A14" s="46"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
@@ -5287,14 +4768,14 @@
       <c r="M20" s="5"/>
     </row>
     <row r="21" spans="8:13" ht="18.75">
-      <c r="H21" s="46"/>
+      <c r="H21" s="51"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="20"/>
     </row>
     <row r="22" spans="8:13" ht="18.75">
-      <c r="H22" s="46"/>
+      <c r="H22" s="51"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -5449,7 +4930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B336994-BBAA-4905-B766-C1939FC9C445}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
